--- a/BKG.xlsx
+++ b/BKG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/Desktop/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="8_{DF307CC6-AA10-46B1-9F93-D5640C5283D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3718F1E-7183-4A1A-B695-2B5FEB877602}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E52A613-55FC-4811-ACF2-D8B355A7130B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A1A7741-0AA6-4752-BD0A-E3917C48D102}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A1A7741-0AA6-4752-BD0A-E3917C48D102}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Price</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>CTA</t>
+  </si>
+  <si>
+    <t>ROIC</t>
   </si>
 </sst>
 </file>
@@ -196,16 +199,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -527,7 +528,7 @@
   <dimension ref="L1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,8 +593,8 @@
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -603,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C5FC88-3AA9-4DBC-BA4A-03E12D631302}">
-  <dimension ref="B2:AA46"/>
+  <dimension ref="B2:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,61 +616,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>2017</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>2018</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>2019</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>2020</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="1">
         <v>2021</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>2022</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="1">
         <v>2023</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="1">
         <v>2024</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="1">
         <v>2025</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="1">
         <v>2026</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="1">
         <v>2027</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="1">
         <v>2028</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="1">
         <v>2029</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="1">
         <v>2030</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="1">
         <v>2031</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="1">
         <v>2032</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="1">
         <v>2033</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="1">
         <v>2034</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="1">
         <v>2035</v>
       </c>
     </row>
@@ -677,13 +678,13 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>1920.4</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>2202.1999999999998</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>2348</v>
       </c>
     </row>
@@ -691,13 +692,13 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>1283</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>1566.9</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>1683.2</v>
       </c>
     </row>
@@ -705,15 +706,15 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <f>+L3-L4</f>
         <v>637.40000000000009</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <f>+M3-M4</f>
         <v>635.29999999999973</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <f>+N3-N4</f>
         <v>664.8</v>
       </c>
@@ -722,13 +723,13 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>167.7</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>133</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="3">
         <v>156.9</v>
       </c>
     </row>
@@ -736,15 +737,15 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <f>+L5-L6</f>
         <v>469.7000000000001</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <f>+M5-M6</f>
         <v>502.29999999999973</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="3">
         <f>+N5-N6</f>
         <v>507.9</v>
       </c>
@@ -753,13 +754,13 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>12.4</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>2.5</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>2.5</v>
       </c>
     </row>
@@ -767,13 +768,13 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>11.7</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>9.6</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="3">
         <v>15</v>
       </c>
     </row>
@@ -781,13 +782,13 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>33.299999999999997</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>22.4</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>56.1</v>
       </c>
     </row>
@@ -795,15 +796,15 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <f>+L7+L8-L9+L10</f>
         <v>503.7000000000001</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <f>+M7+M8-M9+M10</f>
         <v>517.59999999999968</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="3">
         <f>+N7+N8-N9+N10</f>
         <v>551.5</v>
       </c>
@@ -812,13 +813,13 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>93.6</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>95.4</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <v>69.099999999999994</v>
       </c>
     </row>
@@ -826,15 +827,15 @@
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <f>+L11-L12</f>
         <v>410.10000000000014</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <f>+M11-M12</f>
         <v>422.1999999999997</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <f>+N11-N12</f>
         <v>482.4</v>
       </c>
@@ -872,11 +873,11 @@
         <f t="shared" ref="L17:M17" si="0">+L3/K3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <f t="shared" si="0"/>
         <v>0.14674026244532379</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="5">
         <f>+N3/M3-1</f>
         <v>6.6206520751975306E-2</v>
       </c>
@@ -890,15 +891,15 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <f>+L5/L3</f>
         <v>0.3319100187460946</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="5">
         <f>+M5/M3</f>
         <v>0.2884842430296975</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="5">
         <f>+N5/N3</f>
         <v>0.28313458262350932</v>
       </c>
@@ -907,43 +908,43 @@
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <f>+L7/L3</f>
         <v>0.24458446157050617</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="5">
         <f>+M7/M3</f>
         <v>0.22809009172645525</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="5">
         <f>+N7/N3</f>
         <v>0.21631175468483815</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <f>+L12/L11</f>
         <v>0.18582489577129238</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="5">
         <f>+M12/M11</f>
         <v>0.18431221020092747</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="5">
         <f>+N12/N11</f>
         <v>0.12529465095194922</v>
       </c>
-      <c r="R23" s="8"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R24" s="8"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R25" s="8"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
@@ -972,7 +973,7 @@
       <c r="N27" s="3">
         <v>40.5</v>
       </c>
-      <c r="R27" s="8"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
@@ -987,7 +988,7 @@
       <c r="N28" s="3">
         <v>5.8</v>
       </c>
-      <c r="R28" s="8"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
@@ -1031,7 +1032,7 @@
       <c r="N31" s="3">
         <v>5134</v>
       </c>
-      <c r="R31" s="8"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
@@ -1046,7 +1047,7 @@
       <c r="N32" s="3">
         <v>145.69999999999999</v>
       </c>
-      <c r="R32" s="8"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
@@ -1061,7 +1062,7 @@
       <c r="N33" s="3">
         <v>4.5</v>
       </c>
-      <c r="R33" s="8"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -1078,7 +1079,7 @@
         <f>928.9</f>
         <v>928.9</v>
       </c>
-      <c r="R34" s="8"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L35" s="3">
@@ -1244,6 +1245,23 @@
         <v>6587.7</v>
       </c>
     </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L49" s="5">
+        <f>+L13/(L46)</f>
+        <v>7.2573794860904678E-2</v>
+      </c>
+      <c r="M49" s="5">
+        <f t="shared" ref="M49:N49" si="2">+M13/(M46)</f>
+        <v>7.6041929325312438E-2</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="2"/>
+        <v>7.3227378295915108E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
